--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt8a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt8a-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H2">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I2">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J2">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N2">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O2">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P2">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q2">
-        <v>0.8768120511480001</v>
+        <v>0.2682234239033333</v>
       </c>
       <c r="R2">
-        <v>5.260872306888</v>
+        <v>1.60934054342</v>
       </c>
       <c r="S2">
-        <v>0.0389209608017741</v>
+        <v>0.0004707887274010692</v>
       </c>
       <c r="T2">
-        <v>0.02792458187248741</v>
+        <v>0.0003303932854983474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H3">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I3">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J3">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>15.185923</v>
       </c>
       <c r="O3">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P3">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q3">
-        <v>2.044990385572889</v>
+        <v>0.4784645632857777</v>
       </c>
       <c r="R3">
-        <v>18.404913470156</v>
+        <v>4.306181069571999</v>
       </c>
       <c r="S3">
-        <v>0.09077542961764393</v>
+        <v>0.0008398063061673573</v>
       </c>
       <c r="T3">
-        <v>0.09769283173448426</v>
+        <v>0.0008840473927930993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H4">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I4">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J4">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N4">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O4">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P4">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q4">
-        <v>1.541434737807111</v>
+        <v>0.4132737983208888</v>
       </c>
       <c r="R4">
-        <v>13.872912640264</v>
+        <v>3.719464184887999</v>
       </c>
       <c r="S4">
-        <v>0.06842301144257069</v>
+        <v>0.0007253827527375749</v>
       </c>
       <c r="T4">
-        <v>0.07363708188197331</v>
+        <v>0.0007635959942493465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H5">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I5">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J5">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N5">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O5">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P5">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q5">
-        <v>0.9572884059153334</v>
+        <v>0.2044067785753333</v>
       </c>
       <c r="R5">
-        <v>5.743730435492</v>
+        <v>1.226440671452</v>
       </c>
       <c r="S5">
-        <v>0.0424932395418622</v>
+        <v>0.0003587770439926794</v>
       </c>
       <c r="T5">
-        <v>0.03048758104039051</v>
+        <v>0.0002517849715317063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H6">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I6">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J6">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N6">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O6">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P6">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q6">
-        <v>1.328554414614667</v>
+        <v>1.510127013564444</v>
       </c>
       <c r="R6">
-        <v>11.956989731532</v>
+        <v>13.59114312208</v>
       </c>
       <c r="S6">
-        <v>0.05897343019697307</v>
+        <v>0.002650591676833586</v>
       </c>
       <c r="T6">
-        <v>0.06346740981899389</v>
+        <v>0.00279022513174229</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H7">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I7">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J7">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N7">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O7">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P7">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q7">
-        <v>1.885108789959111</v>
+        <v>0.2736149995244444</v>
       </c>
       <c r="R7">
-        <v>16.965979109632</v>
+        <v>2.46253499572</v>
       </c>
       <c r="S7">
-        <v>0.08367841799735247</v>
+        <v>0.0004802520807070962</v>
       </c>
       <c r="T7">
-        <v>0.09005500324984715</v>
+        <v>0.0005055518120245714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H8">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I8">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J8">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N8">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O8">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P8">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q8">
-        <v>1.410934596258</v>
+        <v>48.19508711940166</v>
       </c>
       <c r="R8">
-        <v>8.465607577548001</v>
+        <v>289.1705227164099</v>
       </c>
       <c r="S8">
-        <v>0.06263021823539616</v>
+        <v>0.08459255124602409</v>
       </c>
       <c r="T8">
-        <v>0.04493523851359688</v>
+        <v>0.05936593063548733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H9">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I9">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J9">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>15.185923</v>
       </c>
       <c r="O9">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P9">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q9">
-        <v>3.290725395758444</v>
+        <v>85.97176553608953</v>
       </c>
       <c r="R9">
-        <v>29.616528561826</v>
+        <v>773.7458898248059</v>
       </c>
       <c r="S9">
-        <v>0.146072575040484</v>
+        <v>0.1508985960292027</v>
       </c>
       <c r="T9">
-        <v>0.1572038111475832</v>
+        <v>0.1588479503143567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H10">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I10">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J10">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N10">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O10">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P10">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q10">
-        <v>2.480421655471555</v>
+        <v>74.25811819261376</v>
       </c>
       <c r="R10">
-        <v>22.323794899244</v>
+        <v>668.3230637335239</v>
       </c>
       <c r="S10">
-        <v>0.1101038630777038</v>
+        <v>0.1303386723439121</v>
       </c>
       <c r="T10">
-        <v>0.1184941587638172</v>
+        <v>0.1372049276357629</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H11">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I11">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J11">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N11">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O11">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P11">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q11">
-        <v>1.540434268363667</v>
+        <v>36.72834519025766</v>
       </c>
       <c r="R11">
-        <v>9.242605610182002</v>
+        <v>220.370071141546</v>
       </c>
       <c r="S11">
-        <v>0.06837860143253413</v>
+        <v>0.06446599868138399</v>
       </c>
       <c r="T11">
-        <v>0.049059525116912</v>
+        <v>0.04524138295505462</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H12">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I12">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J12">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N12">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O12">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P12">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q12">
-        <v>2.137862252391333</v>
+        <v>271.3435758926489</v>
       </c>
       <c r="R12">
-        <v>19.240760271522</v>
+        <v>2442.09218303384</v>
       </c>
       <c r="S12">
-        <v>0.09489793487210026</v>
+        <v>0.476265252765525</v>
       </c>
       <c r="T12">
-        <v>0.1021294861666859</v>
+        <v>0.5013549575578007</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.98384066666667</v>
+      </c>
+      <c r="H13">
+        <v>50.951522</v>
+      </c>
+      <c r="I13">
+        <v>0.9928540224128104</v>
+      </c>
+      <c r="J13">
+        <v>0.9928540224128104</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.894743333333333</v>
+      </c>
+      <c r="N13">
+        <v>8.684229999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.08691403710794816</v>
+      </c>
+      <c r="P13">
+        <v>0.0914926779403015</v>
+      </c>
+      <c r="Q13">
+        <v>49.16385954422888</v>
+      </c>
+      <c r="R13">
+        <v>442.4747358980599</v>
+      </c>
+      <c r="S13">
+        <v>0.0862929513467626</v>
+      </c>
+      <c r="T13">
+        <v>0.09083887331434815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J14">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>2.8377025</v>
+      </c>
+      <c r="N14">
+        <v>5.675405</v>
+      </c>
+      <c r="O14">
+        <v>0.08520139853031897</v>
+      </c>
+      <c r="P14">
+        <v>0.05979321158534227</v>
+      </c>
+      <c r="Q14">
+        <v>0.07865638379583333</v>
+      </c>
+      <c r="R14">
+        <v>0.471938302775</v>
+      </c>
+      <c r="S14">
+        <v>0.0001380585568938085</v>
+      </c>
+      <c r="T14">
+        <v>9.688766435660056E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J15">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.061974333333333</v>
+      </c>
+      <c r="N15">
+        <v>15.185923</v>
+      </c>
+      <c r="O15">
+        <v>0.1519846751111432</v>
+      </c>
+      <c r="P15">
+        <v>0.1599912441592654</v>
+      </c>
+      <c r="Q15">
+        <v>0.1403094918961111</v>
+      </c>
+      <c r="R15">
+        <v>1.262785427065</v>
+      </c>
+      <c r="S15">
+        <v>0.000246272775773182</v>
+      </c>
+      <c r="T15">
+        <v>0.0002592464521156077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J16">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.372280666666666</v>
+      </c>
+      <c r="N16">
+        <v>13.116842</v>
+      </c>
+      <c r="O16">
+        <v>0.1312767732230829</v>
+      </c>
+      <c r="P16">
+        <v>0.1381924477702479</v>
+      </c>
+      <c r="Q16">
+        <v>0.1211923329455555</v>
+      </c>
+      <c r="R16">
+        <v>1.09073099651</v>
+      </c>
+      <c r="S16">
+        <v>0.0002127181264331616</v>
+      </c>
+      <c r="T16">
+        <v>0.0002239241402357296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J17">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.1625465</v>
+      </c>
+      <c r="N17">
+        <v>4.325093</v>
+      </c>
+      <c r="O17">
+        <v>0.06492998691259792</v>
+      </c>
+      <c r="P17">
+        <v>0.04556700374251401</v>
+      </c>
+      <c r="Q17">
+        <v>0.05994218473583333</v>
+      </c>
+      <c r="R17">
+        <v>0.359653108415</v>
+      </c>
+      <c r="S17">
+        <v>0.0001052111872212666</v>
+      </c>
+      <c r="T17">
+        <v>7.383581592768844E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.6500873333333334</v>
-      </c>
-      <c r="H13">
-        <v>1.950262</v>
-      </c>
-      <c r="I13">
-        <v>0.6167355104018235</v>
-      </c>
-      <c r="J13">
-        <v>0.6167355104018235</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.666218666666667</v>
-      </c>
-      <c r="N13">
-        <v>13.998656</v>
-      </c>
-      <c r="O13">
-        <v>0.2183307357409577</v>
-      </c>
-      <c r="P13">
-        <v>0.2349682939430755</v>
-      </c>
-      <c r="Q13">
-        <v>3.033449649763555</v>
-      </c>
-      <c r="R13">
-        <v>27.301046847872</v>
-      </c>
-      <c r="S13">
-        <v>0.1346523177436052</v>
-      </c>
-      <c r="T13">
-        <v>0.1449132906932284</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J18">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.97657333333333</v>
+      </c>
+      <c r="N18">
+        <v>47.92972</v>
+      </c>
+      <c r="O18">
+        <v>0.479693129114909</v>
+      </c>
+      <c r="P18">
+        <v>0.5049634148023289</v>
+      </c>
+      <c r="Q18">
+        <v>0.4428439851777778</v>
+      </c>
+      <c r="R18">
+        <v>3.985595866600001</v>
+      </c>
+      <c r="S18">
+        <v>0.0007772846725504535</v>
+      </c>
+      <c r="T18">
+        <v>0.0008182321127859325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J19">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.894743333333333</v>
+      </c>
+      <c r="N19">
+        <v>8.684229999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.08691403710794816</v>
+      </c>
+      <c r="P19">
+        <v>0.0914926779403015</v>
+      </c>
+      <c r="Q19">
+        <v>0.08023746062777777</v>
+      </c>
+      <c r="R19">
+        <v>0.72213714565</v>
+      </c>
+      <c r="S19">
+        <v>0.0001408336804784761</v>
+      </c>
+      <c r="T19">
+        <v>0.0001482528139287894</v>
       </c>
     </row>
   </sheetData>
